--- a/data/rates_data/rates_or.xlsx
+++ b/data/rates_data/rates_or.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lap19\Documents\ShrinkingCities\affordability\data_2021\rates_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lap19\Documents\GitHub\water-affordability\data\rates_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8562" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8401" uniqueCount="165">
   <si>
     <t>pwsid</t>
   </si>
@@ -519,19 +519,10 @@
     <t>GEOID</t>
   </si>
   <si>
-    <t>analyst</t>
-  </si>
-  <si>
-    <t>lp</t>
-  </si>
-  <si>
     <t>adjustment</t>
   </si>
   <si>
     <t>update_bill</t>
-  </si>
-  <si>
-    <t>updated</t>
   </si>
 </sst>
 </file>
@@ -900,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +904,7 @@
     <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>162</v>
       </c>
@@ -936,31 +927,25 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>4159000</v>
       </c>
@@ -982,33 +967,29 @@
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="3">
+      <c r="J2" s="3">
         <f>IF($F2="NA","NA", YEAR($F2))</f>
         <v>1986</v>
       </c>
-      <c r="M2" s="3">
+      <c r="K2" s="3">
         <f>IF($F2="NA","NA", MONTH($F2))</f>
         <v>7</v>
       </c>
-      <c r="N2" s="3">
+      <c r="L2" s="3">
         <f>IF($F2="NA","NA", DAY($F2))</f>
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="M2">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>4159000</v>
       </c>
@@ -1030,31 +1011,27 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J66" si="0">IF($F3="NA","NA", YEAR($F3))</f>
+        <v>1987</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="1">IF($F3="NA","NA", MONTH($F3))</f>
+        <v>7</v>
+      </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="0">IF($F3="NA","NA", YEAR($F3))</f>
-        <v>1987</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M66" si="1">IF($F3="NA","NA", MONTH($F3))</f>
-        <v>7</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" ref="N3:N66" si="2">IF($F3="NA","NA", DAY($F3))</f>
-        <v>1</v>
-      </c>
-      <c r="O3">
+        <f t="shared" ref="L3:L66" si="2">IF($F3="NA","NA", DAY($F3))</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>4159000</v>
       </c>
@@ -1076,31 +1053,27 @@
       <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="3">
+      <c r="I4" s="6"/>
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="M4" s="3">
+      <c r="K4" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N4" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="M4">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4159000</v>
       </c>
@@ -1122,30 +1095,26 @@
       <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="3">
+      <c r="J5" s="3">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="M5" s="3">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N5" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="M5">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4159000</v>
       </c>
@@ -1167,30 +1136,26 @@
       <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="M6" s="3">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N6" s="3">
+      <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="M6">
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4159000</v>
       </c>
@@ -1212,30 +1177,26 @@
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="3">
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="M7" s="3">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N7" s="3">
+      <c r="L7" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O7">
+      <c r="M7">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4159000</v>
       </c>
@@ -1257,30 +1218,26 @@
       <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="3">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="M8" s="3">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N8" s="3">
+      <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O8">
+      <c r="M8">
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4159000</v>
       </c>
@@ -1302,30 +1259,26 @@
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="3">
+      <c r="J9" s="3">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="M9" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N9" s="3">
+      <c r="L9" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="M9">
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4159000</v>
       </c>
@@ -1347,30 +1300,26 @@
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="3">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="M10" s="3">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N10" s="3">
+      <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O10">
+      <c r="M10">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>4159000</v>
       </c>
@@ -1392,30 +1341,26 @@
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="3">
+      <c r="J11" s="3">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="M11" s="3">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N11" s="3">
+      <c r="L11" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="M11">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>4159000</v>
       </c>
@@ -1437,30 +1382,26 @@
       <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="3">
+      <c r="J12" s="3">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="M12" s="3">
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N12" s="3">
+      <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O12">
+      <c r="M12">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>4159000</v>
       </c>
@@ -1482,30 +1423,26 @@
       <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="3">
+      <c r="J13" s="3">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="M13" s="3">
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N13" s="3">
+      <c r="L13" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="M13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>4159000</v>
       </c>
@@ -1527,33 +1464,29 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="3">
+      <c r="J14" s="3">
         <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="M14" s="3">
+      <c r="K14" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N14" s="3">
+      <c r="L14" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="M14">
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>4159000</v>
       </c>
@@ -1575,33 +1508,29 @@
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="3">
+      <c r="J15" s="3">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="M15" s="3">
+      <c r="K15" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N15" s="3">
+      <c r="L15" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="M15">
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>4159000</v>
       </c>
@@ -1623,33 +1552,29 @@
       <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="3">
+      <c r="J16" s="3">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="M16" s="3">
+      <c r="K16" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N16" s="3">
+      <c r="L16" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O16">
+      <c r="M16">
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4159000</v>
       </c>
@@ -1671,33 +1596,29 @@
       <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="3">
+      <c r="J17" s="3">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="M17" s="3">
+      <c r="K17" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N17" s="3">
+      <c r="L17" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="M17">
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>4159000</v>
       </c>
@@ -1719,33 +1640,29 @@
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="3">
+      <c r="J18" s="3">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="M18" s="3">
+      <c r="K18" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N18" s="3">
+      <c r="L18" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O18">
+      <c r="M18">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>4159000</v>
       </c>
@@ -1767,33 +1684,29 @@
       <c r="G19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="M19" s="3">
+      <c r="K19" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N19" s="3">
+      <c r="L19" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O19">
+      <c r="M19">
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>4159000</v>
       </c>
@@ -1815,30 +1728,26 @@
       <c r="G20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="3">
+      <c r="J20" s="3">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="M20" s="3">
+      <c r="K20" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N20" s="3">
+      <c r="L20" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O20">
+      <c r="M20">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>4159000</v>
       </c>
@@ -1860,30 +1769,26 @@
       <c r="G21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="3">
+      <c r="J21" s="3">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="M21" s="3">
+      <c r="K21" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N21" s="3">
+      <c r="L21" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O21">
+      <c r="M21">
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4159000</v>
       </c>
@@ -1905,30 +1810,26 @@
       <c r="G22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="3">
+      <c r="J22" s="3">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="M22" s="3">
+      <c r="K22" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N22" s="3">
+      <c r="L22" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O22">
+      <c r="M22">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>4159000</v>
       </c>
@@ -1950,30 +1851,26 @@
       <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="3">
+      <c r="J23" s="3">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="M23" s="3">
+      <c r="K23" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N23" s="3">
+      <c r="L23" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O23">
+      <c r="M23">
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>4159000</v>
       </c>
@@ -1995,30 +1892,26 @@
       <c r="G24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="3">
+      <c r="J24" s="3">
         <f t="shared" si="0"/>
         <v>1995</v>
       </c>
-      <c r="M24" s="3">
+      <c r="K24" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N24" s="3">
+      <c r="L24" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O24">
+      <c r="M24">
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>4159000</v>
       </c>
@@ -2040,30 +1933,26 @@
       <c r="G25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="3">
+      <c r="J25" s="3">
         <f t="shared" si="0"/>
         <v>1995</v>
       </c>
-      <c r="M25" s="3">
+      <c r="K25" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N25" s="3">
+      <c r="L25" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O25">
+      <c r="M25">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4159000</v>
       </c>
@@ -2085,30 +1974,26 @@
       <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="3">
+      <c r="J26" s="3">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="M26" s="3">
+      <c r="K26" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N26" s="3">
+      <c r="L26" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="M26">
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4159000</v>
       </c>
@@ -2130,30 +2015,26 @@
       <c r="G27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="3">
+      <c r="J27" s="3">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="M27" s="3">
+      <c r="K27" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N27" s="3">
+      <c r="L27" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O27">
+      <c r="M27">
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>4159000</v>
       </c>
@@ -2175,30 +2056,26 @@
       <c r="G28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="3">
+      <c r="J28" s="3">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="M28" s="3">
+      <c r="K28" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N28" s="3">
+      <c r="L28" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O28">
+      <c r="M28">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4159000</v>
       </c>
@@ -2220,30 +2097,26 @@
       <c r="G29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="3">
+      <c r="J29" s="3">
         <f t="shared" si="0"/>
         <v>1995</v>
       </c>
-      <c r="M29" s="3">
+      <c r="K29" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N29" s="3">
+      <c r="L29" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O29">
+      <c r="M29">
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4159000</v>
       </c>
@@ -2265,30 +2138,26 @@
       <c r="G30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="3">
+      <c r="J30" s="3">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="M30" s="3">
+      <c r="K30" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N30" s="3">
+      <c r="L30" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O30">
+      <c r="M30">
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>4159000</v>
       </c>
@@ -2310,30 +2179,26 @@
       <c r="G31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="3">
+      <c r="J31" s="3">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="M31" s="3">
+      <c r="K31" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N31" s="3">
+      <c r="L31" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O31">
+      <c r="M31">
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4159000</v>
       </c>
@@ -2355,30 +2220,26 @@
       <c r="G32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="3">
+      <c r="J32" s="3">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="M32" s="3">
+      <c r="K32" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N32" s="3">
+      <c r="L32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O32">
+      <c r="M32">
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>4159000</v>
       </c>
@@ -2400,30 +2261,26 @@
       <c r="G33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L33" s="3">
+      <c r="J33" s="3">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="M33" s="3">
+      <c r="K33" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N33" s="3">
+      <c r="L33" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O33">
+      <c r="M33">
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>4159000</v>
       </c>
@@ -2445,30 +2302,26 @@
       <c r="G34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L34" s="3">
+      <c r="J34" s="3">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="M34" s="3">
+      <c r="K34" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N34" s="3">
+      <c r="L34" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O34">
+      <c r="M34">
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>4159000</v>
       </c>
@@ -2490,30 +2343,26 @@
       <c r="G35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L35" s="3">
+      <c r="J35" s="3">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="M35" s="3">
+      <c r="K35" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N35" s="3">
+      <c r="L35" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O35">
+      <c r="M35">
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>4159000</v>
       </c>
@@ -2535,30 +2384,26 @@
       <c r="G36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="3">
+      <c r="J36" s="3">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="M36" s="3">
+      <c r="K36" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N36" s="3">
+      <c r="L36" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O36">
+      <c r="M36">
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>4159000</v>
       </c>
@@ -2580,30 +2425,26 @@
       <c r="G37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L37" s="3">
+      <c r="J37" s="3">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="M37" s="3">
+      <c r="K37" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N37" s="3">
+      <c r="L37" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O37">
+      <c r="M37">
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>4159000</v>
       </c>
@@ -2625,30 +2466,26 @@
       <c r="G38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L38" s="3">
+      <c r="J38" s="3">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="M38" s="3">
+      <c r="K38" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N38" s="3">
+      <c r="L38" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O38">
+      <c r="M38">
         <v>2020</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>4159000</v>
       </c>
@@ -2670,30 +2507,26 @@
       <c r="G39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L39" s="3">
+      <c r="J39" s="3">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="M39" s="3">
+      <c r="K39" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N39" s="3">
+      <c r="L39" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O39">
+      <c r="M39">
         <v>2020</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>4159000</v>
       </c>
@@ -2715,30 +2548,26 @@
       <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L40" s="3">
+      <c r="J40" s="3">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="M40" s="3">
+      <c r="K40" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N40" s="3">
+      <c r="L40" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O40">
+      <c r="M40">
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>4159000</v>
       </c>
@@ -2760,30 +2589,26 @@
       <c r="G41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L41" s="3">
+      <c r="J41" s="3">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="K41" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N41" s="3">
+      <c r="L41" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O41">
+      <c r="M41">
         <v>2020</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>4159000</v>
       </c>
@@ -2805,30 +2630,26 @@
       <c r="G42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L42" s="3">
+      <c r="J42" s="3">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="M42" s="3">
+      <c r="K42" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N42" s="3">
+      <c r="L42" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O42">
+      <c r="M42">
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>4159000</v>
       </c>
@@ -2850,30 +2671,26 @@
       <c r="G43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L43" s="3">
+      <c r="J43" s="3">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="M43" s="3">
+      <c r="K43" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N43" s="3">
+      <c r="L43" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O43">
+      <c r="M43">
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>4159000</v>
       </c>
@@ -2895,30 +2712,26 @@
       <c r="G44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L44" s="3">
+      <c r="J44" s="3">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="M44" s="3">
+      <c r="K44" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N44" s="3">
+      <c r="L44" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O44">
+      <c r="M44">
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>4159000</v>
       </c>
@@ -2940,30 +2753,26 @@
       <c r="G45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L45" s="3">
+      <c r="J45" s="3">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="M45" s="3">
+      <c r="K45" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N45" s="3">
+      <c r="L45" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O45">
+      <c r="M45">
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>4159000</v>
       </c>
@@ -2985,30 +2794,26 @@
       <c r="G46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L46" s="3">
+      <c r="J46" s="3">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="K46" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N46" s="3">
+      <c r="L46" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O46">
+      <c r="M46">
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>4159000</v>
       </c>
@@ -3030,30 +2835,26 @@
       <c r="G47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L47" s="3">
+      <c r="J47" s="3">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="M47" s="3">
+      <c r="K47" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N47" s="3">
+      <c r="L47" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O47">
+      <c r="M47">
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>4159000</v>
       </c>
@@ -3075,30 +2876,26 @@
       <c r="G48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L48" s="3">
+      <c r="J48" s="3">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="M48" s="3">
+      <c r="K48" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N48" s="3">
+      <c r="L48" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O48">
+      <c r="M48">
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>4159000</v>
       </c>
@@ -3120,30 +2917,26 @@
       <c r="G49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L49" s="3">
+      <c r="J49" s="3">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="M49" s="3">
+      <c r="K49" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N49" s="3">
+      <c r="L49" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O49">
+      <c r="M49">
         <v>2020</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>4159000</v>
       </c>
@@ -3165,30 +2958,26 @@
       <c r="G50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L50" s="3">
+      <c r="J50" s="3">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="M50" s="3">
+      <c r="K50" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N50" s="3">
+      <c r="L50" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O50">
+      <c r="M50">
         <v>2020</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>4159000</v>
       </c>
@@ -3210,30 +2999,26 @@
       <c r="G51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L51" s="3">
+      <c r="J51" s="3">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="M51" s="3">
+      <c r="K51" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N51" s="3">
+      <c r="L51" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O51">
+      <c r="M51">
         <v>2020</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>4159000</v>
       </c>
@@ -3255,30 +3040,26 @@
       <c r="G52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L52" s="3">
+      <c r="J52" s="3">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="M52" s="3">
+      <c r="K52" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N52" s="3">
+      <c r="L52" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O52">
+      <c r="M52">
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>4159000</v>
       </c>
@@ -3300,30 +3081,26 @@
       <c r="G53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L53" s="3">
+      <c r="J53" s="3">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="M53" s="3">
+      <c r="K53" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N53" s="3">
+      <c r="L53" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O53">
+      <c r="M53">
         <v>2020</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>4159000</v>
       </c>
@@ -3345,30 +3122,26 @@
       <c r="G54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L54" s="3">
+      <c r="J54" s="3">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="M54" s="3">
+      <c r="K54" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N54" s="3">
+      <c r="L54" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O54">
+      <c r="M54">
         <v>2020</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>4159000</v>
       </c>
@@ -3390,30 +3163,26 @@
       <c r="G55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L55" s="3">
+      <c r="J55" s="3">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="M55" s="3">
+      <c r="K55" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N55" s="3">
+      <c r="L55" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O55">
+      <c r="M55">
         <v>2020</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>4159000</v>
       </c>
@@ -3435,30 +3204,26 @@
       <c r="G56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L56" s="3">
+      <c r="J56" s="3">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="M56" s="3">
+      <c r="K56" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N56" s="3">
+      <c r="L56" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O56">
+      <c r="M56">
         <v>2020</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>4159000</v>
       </c>
@@ -3480,30 +3245,26 @@
       <c r="G57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L57" s="3">
+      <c r="J57" s="3">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="M57" s="3">
+      <c r="K57" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N57" s="3">
+      <c r="L57" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O57">
+      <c r="M57">
         <v>2020</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>4159000</v>
       </c>
@@ -3525,30 +3286,26 @@
       <c r="G58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L58" s="3">
+      <c r="J58" s="3">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="M58" s="3">
+      <c r="K58" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N58" s="3">
+      <c r="L58" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O58">
+      <c r="M58">
         <v>2020</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>4159000</v>
       </c>
@@ -3570,30 +3327,26 @@
       <c r="G59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L59" s="3">
+      <c r="J59" s="3">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="M59" s="3">
+      <c r="K59" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N59" s="3">
+      <c r="L59" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O59">
+      <c r="M59">
         <v>2020</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>4159000</v>
       </c>
@@ -3615,30 +3368,26 @@
       <c r="G60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L60" s="3">
+      <c r="J60" s="3">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="M60" s="3">
+      <c r="K60" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N60" s="3">
+      <c r="L60" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O60">
+      <c r="M60">
         <v>2020</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>4159000</v>
       </c>
@@ -3660,30 +3409,26 @@
       <c r="G61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L61" s="3">
+      <c r="J61" s="3">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="M61" s="3">
+      <c r="K61" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N61" s="3">
+      <c r="L61" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O61">
+      <c r="M61">
         <v>2020</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>4159000</v>
       </c>
@@ -3705,30 +3450,26 @@
       <c r="G62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L62" s="3">
+      <c r="J62" s="3">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="M62" s="3">
+      <c r="K62" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N62" s="3">
+      <c r="L62" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O62">
+      <c r="M62">
         <v>2020</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>4159000</v>
       </c>
@@ -3750,30 +3491,26 @@
       <c r="G63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L63" s="3">
+      <c r="J63" s="3">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="M63" s="3">
+      <c r="K63" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N63" s="3">
+      <c r="L63" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O63">
+      <c r="M63">
         <v>2020</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>4159000</v>
       </c>
@@ -3795,30 +3532,26 @@
       <c r="G64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L64" s="3">
+      <c r="J64" s="3">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="M64" s="3">
+      <c r="K64" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N64" s="3">
+      <c r="L64" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O64">
+      <c r="M64">
         <v>2020</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>4159000</v>
       </c>
@@ -3840,30 +3573,26 @@
       <c r="G65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L65" s="3">
+      <c r="J65" s="3">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="M65" s="3">
+      <c r="K65" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N65" s="3">
+      <c r="L65" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O65">
+      <c r="M65">
         <v>2020</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>4159000</v>
       </c>
@@ -3885,30 +3614,26 @@
       <c r="G66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L66" s="3">
+      <c r="J66" s="3">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="M66" s="3">
+      <c r="K66" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N66" s="3">
+      <c r="L66" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O66">
+      <c r="M66">
         <v>2020</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>4159000</v>
       </c>
@@ -3930,30 +3655,26 @@
       <c r="G67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="J67" s="3">
+        <f t="shared" ref="J67:J130" si="3">IF($F67="NA","NA", YEAR($F67))</f>
+        <v>2009</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" ref="K67:K130" si="4">IF($F67="NA","NA", MONTH($F67))</f>
+        <v>7</v>
+      </c>
       <c r="L67" s="3">
-        <f t="shared" ref="L67:L130" si="3">IF($F67="NA","NA", YEAR($F67))</f>
-        <v>2009</v>
-      </c>
-      <c r="M67" s="3">
-        <f t="shared" ref="M67:M130" si="4">IF($F67="NA","NA", MONTH($F67))</f>
-        <v>7</v>
-      </c>
-      <c r="N67" s="3">
-        <f t="shared" ref="N67:N130" si="5">IF($F67="NA","NA", DAY($F67))</f>
-        <v>1</v>
-      </c>
-      <c r="O67">
+        <f t="shared" ref="L67:L130" si="5">IF($F67="NA","NA", DAY($F67))</f>
+        <v>1</v>
+      </c>
+      <c r="M67">
         <v>2020</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>4159000</v>
       </c>
@@ -3975,30 +3696,26 @@
       <c r="G68" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L68" s="3">
+      <c r="J68" s="3">
         <f t="shared" si="3"/>
         <v>2009</v>
       </c>
-      <c r="M68" s="3">
+      <c r="K68" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N68" s="3">
+      <c r="L68" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O68">
+      <c r="M68">
         <v>2020</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>4159000</v>
       </c>
@@ -4020,30 +3737,26 @@
       <c r="G69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L69" s="3">
+      <c r="J69" s="3">
         <f t="shared" si="3"/>
         <v>2010</v>
       </c>
-      <c r="M69" s="3">
+      <c r="K69" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N69" s="3">
+      <c r="L69" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O69">
+      <c r="M69">
         <v>2020</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>4159000</v>
       </c>
@@ -4065,30 +3778,26 @@
       <c r="G70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L70" s="3">
+      <c r="J70" s="3">
         <f t="shared" si="3"/>
         <v>2010</v>
       </c>
-      <c r="M70" s="3">
+      <c r="K70" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N70" s="3">
+      <c r="L70" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O70">
+      <c r="M70">
         <v>2020</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>4159000</v>
       </c>
@@ -4110,30 +3819,26 @@
       <c r="G71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L71" s="3">
+      <c r="J71" s="3">
         <f t="shared" si="3"/>
         <v>2009</v>
       </c>
-      <c r="M71" s="3">
+      <c r="K71" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N71" s="3">
+      <c r="L71" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O71">
+      <c r="M71">
         <v>2020</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>4159000</v>
       </c>
@@ -4155,30 +3860,26 @@
       <c r="G72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L72" s="3">
+      <c r="J72" s="3">
         <f t="shared" si="3"/>
         <v>2010</v>
       </c>
-      <c r="M72" s="3">
+      <c r="K72" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N72" s="3">
+      <c r="L72" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O72">
+      <c r="M72">
         <v>2020</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>4159000</v>
       </c>
@@ -4200,30 +3901,26 @@
       <c r="G73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L73" s="3">
+      <c r="J73" s="3">
         <f t="shared" si="3"/>
         <v>2011</v>
       </c>
-      <c r="M73" s="3">
+      <c r="K73" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N73" s="3">
+      <c r="L73" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O73">
+      <c r="M73">
         <v>2020</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>4159000</v>
       </c>
@@ -4245,30 +3942,26 @@
       <c r="G74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L74" s="3">
+      <c r="J74" s="3">
         <f t="shared" si="3"/>
         <v>2011</v>
       </c>
-      <c r="M74" s="3">
+      <c r="K74" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N74" s="3">
+      <c r="L74" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O74">
+      <c r="M74">
         <v>2020</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>4159000</v>
       </c>
@@ -4290,30 +3983,26 @@
       <c r="G75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L75" s="3">
+      <c r="J75" s="3">
         <f t="shared" si="3"/>
         <v>2012</v>
       </c>
-      <c r="M75" s="3">
+      <c r="K75" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N75" s="3">
+      <c r="L75" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O75">
+      <c r="M75">
         <v>2020</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>4159000</v>
       </c>
@@ -4335,30 +4024,26 @@
       <c r="G76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L76" s="3">
+      <c r="J76" s="3">
         <f t="shared" si="3"/>
         <v>2012</v>
       </c>
-      <c r="M76" s="3">
+      <c r="K76" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N76" s="3">
+      <c r="L76" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O76">
+      <c r="M76">
         <v>2020</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>4159000</v>
       </c>
@@ -4380,30 +4065,26 @@
       <c r="G77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L77" s="3">
+      <c r="J77" s="3">
         <f t="shared" si="3"/>
         <v>2013</v>
       </c>
-      <c r="M77" s="3">
+      <c r="K77" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N77" s="3">
+      <c r="L77" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O77">
+      <c r="M77">
         <v>2020</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>4159000</v>
       </c>
@@ -4425,30 +4106,26 @@
       <c r="G78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L78" s="3">
+      <c r="J78" s="3">
         <f t="shared" si="3"/>
         <v>2013</v>
       </c>
-      <c r="M78" s="3">
+      <c r="K78" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N78" s="3">
+      <c r="L78" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O78">
+      <c r="M78">
         <v>2020</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>4159000</v>
       </c>
@@ -4470,30 +4147,26 @@
       <c r="G79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L79" s="3">
+      <c r="J79" s="3">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="M79" s="3">
+      <c r="K79" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N79" s="3">
+      <c r="L79" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O79">
+      <c r="M79">
         <v>2020</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>4159000</v>
       </c>
@@ -4515,30 +4188,26 @@
       <c r="G80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L80" s="3">
+      <c r="J80" s="3">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="M80" s="3">
+      <c r="K80" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N80" s="3">
+      <c r="L80" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O80">
+      <c r="M80">
         <v>2020</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>4159000</v>
       </c>
@@ -4560,30 +4229,26 @@
       <c r="G81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L81" s="3">
+      <c r="J81" s="3">
         <f t="shared" si="3"/>
         <v>2011</v>
       </c>
-      <c r="M81" s="3">
+      <c r="K81" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N81" s="3">
+      <c r="L81" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O81">
+      <c r="M81">
         <v>2020</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>4159000</v>
       </c>
@@ -4605,30 +4270,26 @@
       <c r="G82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L82" s="3">
+      <c r="J82" s="3">
         <f t="shared" si="3"/>
         <v>2012</v>
       </c>
-      <c r="M82" s="3">
+      <c r="K82" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N82" s="3">
+      <c r="L82" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O82">
+      <c r="M82">
         <v>2020</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>4159000</v>
       </c>
@@ -4650,30 +4311,26 @@
       <c r="G83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L83" s="3">
+      <c r="J83" s="3">
         <f t="shared" si="3"/>
         <v>2013</v>
       </c>
-      <c r="M83" s="3">
+      <c r="K83" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N83" s="3">
+      <c r="L83" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O83">
+      <c r="M83">
         <v>2020</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>4159000</v>
       </c>
@@ -4695,30 +4352,26 @@
       <c r="G84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L84" s="3">
+      <c r="J84" s="3">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="M84" s="3">
+      <c r="K84" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N84" s="3">
+      <c r="L84" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O84">
+      <c r="M84">
         <v>2020</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>4159000</v>
       </c>
@@ -4740,30 +4393,26 @@
       <c r="G85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L85" s="3">
+      <c r="J85" s="3">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="M85" s="3">
+      <c r="K85" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N85" s="3">
+      <c r="L85" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O85">
+      <c r="M85">
         <v>2020</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>4159000</v>
       </c>
@@ -4785,30 +4434,26 @@
       <c r="G86" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L86" s="3">
+      <c r="J86" s="3">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="M86" s="3">
+      <c r="K86" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N86" s="3">
+      <c r="L86" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O86">
+      <c r="M86">
         <v>2020</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>4159000</v>
       </c>
@@ -4830,30 +4475,26 @@
       <c r="G87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L87" s="3">
+      <c r="J87" s="3">
         <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="M87" s="3">
+      <c r="K87" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N87" s="3">
+      <c r="L87" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O87">
+      <c r="M87">
         <v>2020</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>4159000</v>
       </c>
@@ -4875,30 +4516,26 @@
       <c r="G88" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L88" s="3">
+      <c r="J88" s="3">
         <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="M88" s="3">
+      <c r="K88" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N88" s="3">
+      <c r="L88" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O88">
+      <c r="M88">
         <v>2020</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>4159000</v>
       </c>
@@ -4920,30 +4557,26 @@
       <c r="G89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L89" s="3">
+      <c r="J89" s="3">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="M89" s="3">
+      <c r="K89" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N89" s="3">
+      <c r="L89" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O89">
+      <c r="M89">
         <v>2020</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>4159000</v>
       </c>
@@ -4965,30 +4598,26 @@
       <c r="G90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L90" s="3">
+      <c r="J90" s="3">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="M90" s="3">
+      <c r="K90" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N90" s="3">
+      <c r="L90" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O90">
+      <c r="M90">
         <v>2020</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>4159000</v>
       </c>
@@ -5010,30 +4639,26 @@
       <c r="G91" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L91" s="3">
+      <c r="J91" s="3">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="M91" s="3">
+      <c r="K91" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N91" s="3">
+      <c r="L91" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O91">
+      <c r="M91">
         <v>2020</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>4159000</v>
       </c>
@@ -5055,30 +4680,26 @@
       <c r="G92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L92" s="3">
+      <c r="J92" s="3">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="M92" s="3">
+      <c r="K92" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N92" s="3">
+      <c r="L92" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O92">
+      <c r="M92">
         <v>2020</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>4159000</v>
       </c>
@@ -5100,30 +4721,26 @@
       <c r="G93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L93" s="3">
+      <c r="J93" s="3">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="M93" s="3">
+      <c r="K93" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N93" s="3">
+      <c r="L93" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O93">
+      <c r="M93">
         <v>2020</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>4159000</v>
       </c>
@@ -5145,30 +4762,26 @@
       <c r="G94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L94" s="3">
+      <c r="J94" s="3">
         <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="M94" s="3">
+      <c r="K94" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N94" s="3">
+      <c r="L94" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O94">
+      <c r="M94">
         <v>2020</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>4159000</v>
       </c>
@@ -5190,30 +4803,26 @@
       <c r="G95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I95" s="4"/>
-      <c r="J95" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L95" s="3">
+      <c r="J95" s="3">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="M95" s="3">
+      <c r="K95" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N95" s="3">
+      <c r="L95" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O95">
+      <c r="M95">
         <v>2020</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>4159000</v>
       </c>
@@ -5235,30 +4844,26 @@
       <c r="G96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I96" s="4"/>
-      <c r="J96" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L96" s="3">
+      <c r="J96" s="3">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="M96" s="3">
+      <c r="K96" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N96" s="3">
+      <c r="L96" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O96">
+      <c r="M96">
         <v>2020</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>4159000</v>
       </c>
@@ -5280,30 +4885,26 @@
       <c r="G97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I97" s="4"/>
-      <c r="J97" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L97" s="3">
+      <c r="J97" s="3">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="M97" s="3">
+      <c r="K97" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N97" s="3">
+      <c r="L97" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O97">
+      <c r="M97">
         <v>2020</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>4159000</v>
       </c>
@@ -5325,30 +4926,26 @@
       <c r="G98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I98" s="4"/>
-      <c r="J98" s="3" t="s">
+      <c r="H98" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L98" s="3">
+      <c r="J98" s="3">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="M98" s="3">
+      <c r="K98" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N98" s="3">
+      <c r="L98" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O98">
+      <c r="M98">
         <v>2020</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>4159000</v>
       </c>
@@ -5370,30 +4967,26 @@
       <c r="G99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I99" s="4"/>
-      <c r="J99" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L99" s="3">
+      <c r="J99" s="3">
         <f t="shared" si="3"/>
         <v>2021</v>
       </c>
-      <c r="M99" s="3">
+      <c r="K99" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N99" s="3">
+      <c r="L99" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O99">
+      <c r="M99">
         <v>2020</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>4159000</v>
       </c>
@@ -5415,30 +5008,26 @@
       <c r="G100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I100" s="4"/>
-      <c r="J100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L100" s="3">
+      <c r="J100" s="3">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="M100" s="3">
+      <c r="K100" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N100" s="3">
+      <c r="L100" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O100">
+      <c r="M100">
         <v>2020</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>4159000</v>
       </c>
@@ -5460,30 +5049,26 @@
       <c r="G101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I101" s="4"/>
-      <c r="J101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L101" s="3">
+      <c r="J101" s="3">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="M101" s="3">
+      <c r="K101" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N101" s="3">
+      <c r="L101" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O101">
+      <c r="M101">
         <v>2020</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>4159000</v>
       </c>
@@ -5505,30 +5090,26 @@
       <c r="G102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I102" s="4"/>
-      <c r="J102" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L102" s="3">
+      <c r="J102" s="3">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="M102" s="3">
+      <c r="K102" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N102" s="3">
+      <c r="L102" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O102">
+      <c r="M102">
         <v>2020</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>4159000</v>
       </c>
@@ -5550,30 +5131,26 @@
       <c r="G103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I103" s="4"/>
-      <c r="J103" s="3" t="s">
+      <c r="H103" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L103" s="3">
+      <c r="J103" s="3">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="M103" s="3">
+      <c r="K103" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N103" s="3">
+      <c r="L103" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O103">
+      <c r="M103">
         <v>2020</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>4109800</v>
       </c>
@@ -5595,30 +5172,26 @@
       <c r="G104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I104" s="4"/>
-      <c r="J104" s="3" t="s">
+      <c r="H104" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L104" s="3" t="str">
+      <c r="J104" s="3" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="M104" s="3" t="str">
+      <c r="K104" s="3" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="N104" s="3" t="str">
+      <c r="L104" s="3" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="O104">
+      <c r="M104">
         <v>2020</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>4109800</v>
       </c>
@@ -5640,30 +5213,26 @@
       <c r="G105" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I105" s="4"/>
-      <c r="J105" s="3" t="s">
+      <c r="H105" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L105" s="3" t="str">
+      <c r="J105" s="3" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="M105" s="3" t="str">
+      <c r="K105" s="3" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="N105" s="3" t="str">
+      <c r="L105" s="3" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="O105">
+      <c r="M105">
         <v>2020</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>4109800</v>
       </c>
@@ -5685,30 +5254,26 @@
       <c r="G106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I106" s="4"/>
-      <c r="J106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L106" s="3" t="str">
+      <c r="J106" s="3" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="M106" s="3" t="str">
+      <c r="K106" s="3" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="N106" s="3" t="str">
+      <c r="L106" s="3" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="O106">
+      <c r="M106">
         <v>2020</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>4154900</v>
       </c>
@@ -5730,33 +5295,29 @@
       <c r="G107" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H107" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I107" s="4"/>
-      <c r="J107" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K107" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L107" s="3">
+      <c r="J107" s="3">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="M107" s="3">
+      <c r="K107" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N107" s="3">
+      <c r="L107" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O107">
+      <c r="M107">
         <v>2020</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>4154900</v>
       </c>
@@ -5778,33 +5339,29 @@
       <c r="G108" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I108" s="4"/>
-      <c r="J108" s="3" t="s">
+      <c r="H108" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L108" s="3">
+      <c r="J108" s="3">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="M108" s="3">
+      <c r="K108" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N108" s="3">
+      <c r="L108" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O108">
+      <c r="M108">
         <v>2020</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>4147000</v>
       </c>
@@ -5826,33 +5383,29 @@
       <c r="G109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I109" s="4"/>
-      <c r="J109" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L109" s="3">
+      <c r="J109" s="3">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="M109" s="3">
+      <c r="K109" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N109" s="3">
+      <c r="L109" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O109">
+      <c r="M109">
         <v>2020</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>4147000</v>
       </c>
@@ -5874,33 +5427,29 @@
       <c r="G110" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H110" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I110" s="4"/>
-      <c r="J110" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L110" s="3">
+      <c r="J110" s="3">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="M110" s="3">
+      <c r="K110" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N110" s="3">
+      <c r="L110" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="O110">
+      <c r="M110">
         <v>2020</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>4147000</v>
       </c>
@@ -5922,33 +5471,29 @@
       <c r="G111" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H111" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I111" s="4"/>
-      <c r="J111" s="3" t="s">
+      <c r="H111" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="I111" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L111" s="3">
+      <c r="J111" s="3">
         <f t="shared" si="3"/>
         <v>2017</v>
       </c>
-      <c r="M111" s="3">
+      <c r="K111" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N111" s="3">
+      <c r="L111" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="O111">
+      <c r="M111">
         <v>2020</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>4157150</v>
       </c>
@@ -5970,30 +5515,26 @@
       <c r="G112" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I112" s="4"/>
-      <c r="J112" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L112" s="3">
+      <c r="J112" s="3">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="M112" s="3">
+      <c r="K112" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N112" s="3">
+      <c r="L112" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O112">
+      <c r="M112">
         <v>2020</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>4157150</v>
       </c>
@@ -6015,30 +5556,26 @@
       <c r="G113" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I113" s="4"/>
-      <c r="J113" s="3" t="s">
+      <c r="H113" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L113" s="3">
+      <c r="J113" s="3">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="M113" s="3">
+      <c r="K113" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N113" s="3">
+      <c r="L113" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O113">
+      <c r="M113">
         <v>2020</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>4157150</v>
       </c>
@@ -6060,33 +5597,29 @@
       <c r="G114" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I114" s="4"/>
-      <c r="J114" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L114" s="3">
+      <c r="J114" s="3">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="M114" s="3">
+      <c r="K114" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N114" s="3">
+      <c r="L114" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O114">
+      <c r="M114">
         <v>2020</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>4133700</v>
       </c>
@@ -6108,30 +5641,26 @@
       <c r="G115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I115" s="4"/>
-      <c r="J115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L115" s="3">
+      <c r="J115" s="3">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="M115" s="3">
+      <c r="K115" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N115" s="3">
+      <c r="L115" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O115">
+      <c r="M115">
         <v>2020</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>4133700</v>
       </c>
@@ -6153,30 +5682,26 @@
       <c r="G116" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I116" s="4"/>
-      <c r="J116" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L116" s="3">
+      <c r="J116" s="3">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="M116" s="3">
+      <c r="K116" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N116" s="3">
+      <c r="L116" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O116">
+      <c r="M116">
         <v>2020</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>4133700</v>
       </c>
@@ -6198,30 +5723,26 @@
       <c r="G117" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H117" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I117" s="4"/>
-      <c r="J117" s="3" t="s">
+      <c r="H117" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L117" s="3">
+      <c r="J117" s="3">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="M117" s="3">
+      <c r="K117" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N117" s="3">
+      <c r="L117" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O117">
+      <c r="M117">
         <v>2020</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>4133700</v>
       </c>
@@ -6243,30 +5764,26 @@
       <c r="G118" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H118" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I118" s="4"/>
-      <c r="J118" s="3" t="s">
+      <c r="H118" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L118" s="3">
+      <c r="J118" s="3">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="M118" s="3">
+      <c r="K118" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N118" s="3">
+      <c r="L118" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O118">
+      <c r="M118">
         <v>2020</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>4133700</v>
       </c>
@@ -6288,30 +5805,26 @@
       <c r="G119" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H119" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I119" s="4"/>
-      <c r="J119" s="3" t="s">
+      <c r="H119" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L119" s="3">
+      <c r="J119" s="3">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="M119" s="3">
+      <c r="K119" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N119" s="3">
+      <c r="L119" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O119">
+      <c r="M119">
         <v>2020</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>4133700</v>
       </c>
@@ -6333,30 +5846,26 @@
       <c r="G120" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H120" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I120" s="4"/>
-      <c r="J120" s="3" t="s">
+      <c r="H120" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L120" s="3">
+      <c r="J120" s="3">
         <f t="shared" si="3"/>
         <v>2014</v>
       </c>
-      <c r="M120" s="3">
+      <c r="K120" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N120" s="3">
+      <c r="L120" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O120">
+      <c r="M120">
         <v>2020</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>4133700</v>
       </c>
@@ -6378,30 +5887,26 @@
       <c r="G121" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H121" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I121" s="4"/>
-      <c r="J121" s="3" t="s">
+      <c r="H121" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L121" s="3">
+      <c r="J121" s="3">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="M121" s="3">
+      <c r="K121" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N121" s="3">
+      <c r="L121" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O121">
+      <c r="M121">
         <v>2020</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>4133700</v>
       </c>
@@ -6423,30 +5928,26 @@
       <c r="G122" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I122" s="4"/>
-      <c r="J122" s="3" t="s">
+      <c r="H122" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L122" s="3">
+      <c r="J122" s="3">
         <f t="shared" si="3"/>
         <v>2015</v>
       </c>
-      <c r="M122" s="3">
+      <c r="K122" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N122" s="3">
+      <c r="L122" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O122">
+      <c r="M122">
         <v>2020</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>4133700</v>
       </c>
@@ -6468,30 +5969,26 @@
       <c r="G123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H123" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I123" s="4"/>
-      <c r="J123" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L123" s="3">
+      <c r="J123" s="3">
         <f t="shared" si="3"/>
         <v>1997</v>
       </c>
-      <c r="M123" s="3">
+      <c r="K123" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N123" s="3">
+      <c r="L123" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O123">
+      <c r="M123">
         <v>2020</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>4133700</v>
       </c>
@@ -6513,30 +6010,26 @@
       <c r="G124" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H124" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I124" s="4"/>
-      <c r="J124" s="3" t="s">
+      <c r="H124" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L124" s="3">
+      <c r="J124" s="3">
         <f t="shared" si="3"/>
         <v>1997</v>
       </c>
-      <c r="M124" s="3">
+      <c r="K124" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N124" s="3">
+      <c r="L124" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O124">
+      <c r="M124">
         <v>2020</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>4133700</v>
       </c>
@@ -6558,30 +6051,26 @@
       <c r="G125" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I125" s="4"/>
-      <c r="J125" s="3" t="s">
+      <c r="H125" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L125" s="3">
+      <c r="J125" s="3">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="M125" s="3">
+      <c r="K125" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N125" s="3">
+      <c r="L125" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O125">
+      <c r="M125">
         <v>2020</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>4133700</v>
       </c>
@@ -6603,30 +6092,26 @@
       <c r="G126" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I126" s="4"/>
-      <c r="J126" s="3" t="s">
+      <c r="H126" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L126" s="3">
+      <c r="J126" s="3">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="M126" s="3">
+      <c r="K126" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N126" s="3">
+      <c r="L126" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O126">
+      <c r="M126">
         <v>2020</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>4133700</v>
       </c>
@@ -6648,30 +6133,26 @@
       <c r="G127" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H127" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I127" s="4"/>
-      <c r="J127" s="3" t="s">
+      <c r="H127" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L127" s="3">
+      <c r="J127" s="3">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="M127" s="3">
+      <c r="K127" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N127" s="3">
+      <c r="L127" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O127">
+      <c r="M127">
         <v>2020</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>4133700</v>
       </c>
@@ -6693,30 +6174,26 @@
       <c r="G128" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H128" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I128" s="4"/>
-      <c r="J128" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L128" s="3">
+      <c r="J128" s="3">
         <f t="shared" si="3"/>
         <v>2019</v>
       </c>
-      <c r="M128" s="3">
+      <c r="K128" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N128" s="3">
+      <c r="L128" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O128">
+      <c r="M128">
         <v>2020</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>4133700</v>
       </c>
@@ -6738,30 +6215,26 @@
       <c r="G129" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H129" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I129" s="4"/>
-      <c r="J129" s="3" t="s">
+      <c r="H129" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L129" s="3">
+      <c r="J129" s="3">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="M129" s="3">
+      <c r="K129" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N129" s="3">
+      <c r="L129" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O129">
+      <c r="M129">
         <v>2020</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>4133700</v>
       </c>
@@ -6783,30 +6256,26 @@
       <c r="G130" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I130" s="4"/>
-      <c r="J130" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L130" s="3">
+      <c r="J130" s="3">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="M130" s="3">
+      <c r="K130" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N130" s="3">
+      <c r="L130" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O130">
+      <c r="M130">
         <v>2020</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>4173700</v>
       </c>
@@ -6828,30 +6297,26 @@
       <c r="G131" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H131" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I131" s="4"/>
-      <c r="J131" s="3" t="s">
+      <c r="H131" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="J131" s="3">
+        <f t="shared" ref="J131:J160" si="6">IF($F131="NA","NA", YEAR($F131))</f>
+        <v>2015</v>
+      </c>
+      <c r="K131" s="3">
+        <f t="shared" ref="K131:K160" si="7">IF($F131="NA","NA", MONTH($F131))</f>
+        <v>7</v>
+      </c>
       <c r="L131" s="3">
-        <f t="shared" ref="L131:L160" si="6">IF($F131="NA","NA", YEAR($F131))</f>
-        <v>2015</v>
-      </c>
-      <c r="M131" s="3">
-        <f t="shared" ref="M131:M160" si="7">IF($F131="NA","NA", MONTH($F131))</f>
-        <v>7</v>
-      </c>
-      <c r="N131" s="3">
-        <f t="shared" ref="N131:N160" si="8">IF($F131="NA","NA", DAY($F131))</f>
-        <v>1</v>
-      </c>
-      <c r="O131">
+        <f t="shared" ref="L131:L160" si="8">IF($F131="NA","NA", DAY($F131))</f>
+        <v>1</v>
+      </c>
+      <c r="M131">
         <v>2020</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>4173700</v>
       </c>
@@ -6873,30 +6338,26 @@
       <c r="G132" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H132" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I132" s="4"/>
-      <c r="J132" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L132" s="3">
+      <c r="J132" s="3">
         <f t="shared" si="6"/>
         <v>2015</v>
       </c>
-      <c r="M132" s="3">
+      <c r="K132" s="3">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="N132" s="3">
+      <c r="L132" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O132">
+      <c r="M132">
         <v>2020</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>4173700</v>
       </c>
@@ -6918,30 +6379,26 @@
       <c r="G133" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H133" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I133" s="4"/>
-      <c r="J133" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L133" s="3">
+      <c r="J133" s="3">
         <f t="shared" si="6"/>
         <v>2018</v>
       </c>
-      <c r="M133" s="3">
+      <c r="K133" s="3">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="N133" s="3">
+      <c r="L133" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O133">
+      <c r="M133">
         <v>2020</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>4173700</v>
       </c>
@@ -6963,30 +6420,26 @@
       <c r="G134" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H134" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I134" s="4"/>
-      <c r="J134" s="3" t="s">
+      <c r="H134" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L134" s="3">
+      <c r="J134" s="3">
         <f t="shared" si="6"/>
         <v>2018</v>
       </c>
-      <c r="M134" s="3">
+      <c r="K134" s="3">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="N134" s="3">
+      <c r="L134" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O134">
+      <c r="M134">
         <v>2020</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>4173700</v>
       </c>
@@ -7008,30 +6461,26 @@
       <c r="G135" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I135" s="4"/>
-      <c r="J135" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L135" s="3">
+      <c r="J135" s="3">
         <f t="shared" si="6"/>
         <v>2019</v>
       </c>
-      <c r="M135" s="3">
+      <c r="K135" s="3">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="N135" s="3">
+      <c r="L135" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O135">
+      <c r="M135">
         <v>2020</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>4173700</v>
       </c>
@@ -7053,30 +6502,26 @@
       <c r="G136" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H136" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I136" s="4"/>
-      <c r="J136" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L136" s="3">
+      <c r="J136" s="3">
         <f t="shared" si="6"/>
         <v>2019</v>
       </c>
-      <c r="M136" s="3">
+      <c r="K136" s="3">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="N136" s="3">
+      <c r="L136" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O136">
+      <c r="M136">
         <v>2020</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>4173700</v>
       </c>
@@ -7098,30 +6543,26 @@
       <c r="G137" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I137" s="4"/>
-      <c r="J137" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L137" s="3">
+      <c r="J137" s="3">
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="M137" s="3">
+      <c r="K137" s="3">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="N137" s="3">
+      <c r="L137" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O137">
+      <c r="M137">
         <v>2020</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>4173700</v>
       </c>
@@ -7143,30 +6584,26 @@
       <c r="G138" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H138" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I138" s="4"/>
-      <c r="J138" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L138" s="3">
+      <c r="J138" s="3">
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="M138" s="3">
+      <c r="K138" s="3">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="N138" s="3">
+      <c r="L138" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O138">
+      <c r="M138">
         <v>2020</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>4152450</v>
       </c>
@@ -7188,30 +6625,26 @@
       <c r="G139" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H139" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I139" s="4"/>
-      <c r="J139" s="3" t="s">
+      <c r="H139" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L139" s="3">
+      <c r="J139" s="3">
         <f t="shared" si="6"/>
         <v>2019</v>
       </c>
-      <c r="M139" s="3">
+      <c r="K139" s="3">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="N139" s="3">
+      <c r="L139" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O139">
+      <c r="M139">
         <v>2020</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>4152450</v>
       </c>
@@ -7233,30 +6666,26 @@
       <c r="G140" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H140" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I140" s="4"/>
-      <c r="J140" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L140" s="3">
+      <c r="J140" s="3">
         <f t="shared" si="6"/>
         <v>2019</v>
       </c>
-      <c r="M140" s="3">
+      <c r="K140" s="3">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="N140" s="3">
+      <c r="L140" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O140">
+      <c r="M140">
         <v>2020</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>4152450</v>
       </c>
@@ -7278,30 +6707,26 @@
       <c r="G141" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I141" s="4"/>
-      <c r="J141" s="3" t="s">
+      <c r="H141" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L141" s="3">
+      <c r="J141" s="3">
         <f t="shared" si="6"/>
         <v>2019</v>
       </c>
-      <c r="M141" s="3">
+      <c r="K141" s="3">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="N141" s="3">
+      <c r="L141" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O141">
+      <c r="M141">
         <v>2020</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>4152450</v>
       </c>
@@ -7323,30 +6748,26 @@
       <c r="G142" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I142" s="4"/>
-      <c r="J142" s="3" t="s">
+      <c r="H142" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L142" s="3">
+      <c r="J142" s="3">
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="M142" s="3">
+      <c r="K142" s="3">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="N142" s="3">
+      <c r="L142" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O142">
+      <c r="M142">
         <v>2020</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>4152450</v>
       </c>
@@ -7368,30 +6789,26 @@
       <c r="G143" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I143" s="4"/>
-      <c r="J143" s="3" t="s">
+      <c r="H143" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L143" s="3">
+      <c r="J143" s="3">
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="M143" s="3">
+      <c r="K143" s="3">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="N143" s="3">
+      <c r="L143" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O143">
+      <c r="M143">
         <v>2020</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>4152450</v>
       </c>
@@ -7413,30 +6830,26 @@
       <c r="G144" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H144" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I144" s="4"/>
-      <c r="J144" s="3" t="s">
+      <c r="H144" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L144" s="3">
+      <c r="J144" s="3">
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="M144" s="3">
+      <c r="K144" s="3">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="N144" s="3">
+      <c r="L144" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O144">
+      <c r="M144">
         <v>2020</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>4142600</v>
       </c>
@@ -7458,30 +6871,26 @@
       <c r="G145" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H145" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I145" s="4"/>
-      <c r="J145" s="3" t="s">
+      <c r="H145" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L145" s="3">
+      <c r="J145" s="3">
         <f t="shared" si="6"/>
         <v>2017</v>
       </c>
-      <c r="M145" s="3">
+      <c r="K145" s="3">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="N145" s="3">
+      <c r="L145" s="3">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="O145">
+      <c r="M145">
         <v>2020</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>4142600</v>
       </c>
@@ -7503,30 +6912,26 @@
       <c r="G146" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H146" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I146" s="4"/>
-      <c r="J146" s="3" t="s">
+      <c r="H146" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L146" s="3">
+      <c r="J146" s="3">
         <f t="shared" si="6"/>
         <v>2017</v>
       </c>
-      <c r="M146" s="3">
+      <c r="K146" s="3">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="N146" s="3">
+      <c r="L146" s="3">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="O146">
+      <c r="M146">
         <v>2020</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>4164900</v>
       </c>
@@ -7548,33 +6953,29 @@
       <c r="G147" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H147" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I147" s="4"/>
-      <c r="J147" s="3" t="s">
+      <c r="H147" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K147" s="3" t="s">
+      <c r="I147" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L147" s="3">
+      <c r="J147" s="3">
         <f t="shared" si="6"/>
         <v>1993</v>
       </c>
-      <c r="M147" s="3">
+      <c r="K147" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N147" s="3">
+      <c r="L147" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O147">
+      <c r="M147">
         <v>2020</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>4164900</v>
       </c>
@@ -7596,33 +6997,29 @@
       <c r="G148" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H148" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I148" s="4"/>
-      <c r="J148" s="3" t="s">
+      <c r="H148" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K148" s="3" t="s">
+      <c r="I148" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L148" s="3">
+      <c r="J148" s="3">
         <f t="shared" si="6"/>
         <v>1993</v>
       </c>
-      <c r="M148" s="3">
+      <c r="K148" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N148" s="3">
+      <c r="L148" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O148">
+      <c r="M148">
         <v>2020</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>4164900</v>
       </c>
@@ -7644,33 +7041,29 @@
       <c r="G149" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H149" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="3" t="s">
+      <c r="H149" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K149" s="3" t="s">
+      <c r="I149" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L149" s="3">
+      <c r="J149" s="3">
         <f t="shared" si="6"/>
         <v>1997</v>
       </c>
-      <c r="M149" s="3">
+      <c r="K149" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N149" s="3">
+      <c r="L149" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O149">
+      <c r="M149">
         <v>2020</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>4164900</v>
       </c>
@@ -7692,33 +7085,29 @@
       <c r="G150" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H150" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I150" s="4"/>
-      <c r="J150" s="3" t="s">
+      <c r="H150" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K150" s="3" t="s">
+      <c r="I150" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L150" s="3">
+      <c r="J150" s="3">
         <f t="shared" si="6"/>
         <v>1997</v>
       </c>
-      <c r="M150" s="3">
+      <c r="K150" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N150" s="3">
+      <c r="L150" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O150">
+      <c r="M150">
         <v>2020</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>4164900</v>
       </c>
@@ -7740,33 +7129,29 @@
       <c r="G151" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H151" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I151" s="4"/>
-      <c r="J151" s="3" t="s">
+      <c r="H151" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K151" s="3" t="s">
+      <c r="I151" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L151" s="3">
+      <c r="J151" s="3">
         <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-      <c r="M151" s="3">
+      <c r="K151" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N151" s="3">
+      <c r="L151" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O151">
+      <c r="M151">
         <v>2020</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>4164900</v>
       </c>
@@ -7788,33 +7173,29 @@
       <c r="G152" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H152" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I152" s="4"/>
-      <c r="J152" s="3" t="s">
+      <c r="H152" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K152" s="3" t="s">
+      <c r="I152" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L152" s="3">
+      <c r="J152" s="3">
         <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-      <c r="M152" s="3">
+      <c r="K152" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N152" s="3">
+      <c r="L152" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O152">
+      <c r="M152">
         <v>2020</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>4164900</v>
       </c>
@@ -7836,30 +7217,26 @@
       <c r="G153" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H153" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="3" t="s">
+      <c r="H153" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L153" s="3">
+      <c r="J153" s="3">
         <f t="shared" si="6"/>
         <v>2005</v>
       </c>
-      <c r="M153" s="3">
+      <c r="K153" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N153" s="3">
+      <c r="L153" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O153">
+      <c r="M153">
         <v>2020</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>4164900</v>
       </c>
@@ -7881,30 +7258,26 @@
       <c r="G154" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H154" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I154" s="4"/>
-      <c r="J154" s="3" t="s">
+      <c r="H154" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L154" s="3">
+      <c r="J154" s="3">
         <f t="shared" si="6"/>
         <v>2005</v>
       </c>
-      <c r="M154" s="3">
+      <c r="K154" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N154" s="3">
+      <c r="L154" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O154">
+      <c r="M154">
         <v>2020</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>4164900</v>
       </c>
@@ -7926,30 +7299,26 @@
       <c r="G155" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H155" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I155" s="4"/>
-      <c r="J155" s="3" t="s">
+      <c r="H155" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L155" s="3">
+      <c r="J155" s="3">
         <f t="shared" si="6"/>
         <v>2017</v>
       </c>
-      <c r="M155" s="3">
+      <c r="K155" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N155" s="3">
+      <c r="L155" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O155">
+      <c r="M155">
         <v>2020</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>4164900</v>
       </c>
@@ -7971,30 +7340,26 @@
       <c r="G156" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H156" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I156" s="4"/>
-      <c r="J156" s="3" t="s">
+      <c r="H156" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L156" s="3">
+      <c r="J156" s="3">
         <f t="shared" si="6"/>
         <v>2017</v>
       </c>
-      <c r="M156" s="3">
+      <c r="K156" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N156" s="3">
+      <c r="L156" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O156">
+      <c r="M156">
         <v>2020</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>4164900</v>
       </c>
@@ -8016,30 +7381,26 @@
       <c r="G157" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H157" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I157" s="4"/>
-      <c r="J157" s="3" t="s">
+      <c r="H157" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L157" s="3">
+      <c r="J157" s="3">
         <f t="shared" si="6"/>
         <v>2017</v>
       </c>
-      <c r="M157" s="3">
+      <c r="K157" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N157" s="3">
+      <c r="L157" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O157">
+      <c r="M157">
         <v>2020</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>4164900</v>
       </c>
@@ -8061,30 +7422,26 @@
       <c r="G158" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H158" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I158" s="4"/>
-      <c r="J158" s="3" t="s">
+      <c r="H158" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L158" s="3">
+      <c r="J158" s="3">
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="M158" s="3">
+      <c r="K158" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N158" s="3">
+      <c r="L158" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O158">
+      <c r="M158">
         <v>2020</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>4164900</v>
       </c>
@@ -8106,30 +7463,26 @@
       <c r="G159" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H159" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I159" s="4"/>
-      <c r="J159" s="3" t="s">
+      <c r="H159" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L159" s="3">
+      <c r="J159" s="3">
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="M159" s="3">
+      <c r="K159" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N159" s="3">
+      <c r="L159" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O159">
+      <c r="M159">
         <v>2020</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>4164900</v>
       </c>
@@ -8151,37 +7504,33 @@
       <c r="G160" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H160" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I160" s="4"/>
-      <c r="J160" s="3" t="s">
+      <c r="H160" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L160" s="3">
+      <c r="J160" s="3">
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="M160" s="3">
+      <c r="K160" s="3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N160" s="3">
+      <c r="L160" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O160">
+      <c r="M160">
         <v>2020</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -8260,13 +7609,13 @@
         <v>23</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
